--- a/venue_data.xlsx
+++ b/venue_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderdavis/UW/Classes/info_430/info_430_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819D683-965F-A342-B927-B012E033BC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71DBF1-6876-1F49-A9E5-0570CFFDED16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
